--- a/Моя робота/Додаткова тара.xlsx
+++ b/Моя робота/Додаткова тара.xlsx
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P15" sqref="A1:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,40 +902,39 @@
         <f t="shared" si="1"/>
         <v>277.20000000000005</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
+        <f>L7/D7</f>
         <v>1.4329004329004329</v>
       </c>
       <c r="L7" s="3">
-        <f>G7+J7*200</f>
+        <f>G7+I7*20</f>
         <v>662</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" ref="N7" si="3">J7*C7</f>
+      <c r="M7" s="3">
+        <f>I7*C7</f>
+        <v>410</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="3">
         <v>41</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="3">
-        <f>C7</f>
-        <v>41</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="3">
-        <f t="shared" ref="R7" si="4">N7-P7</f>
-        <v>0</v>
+      <c r="P7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>M7-O7</f>
+        <v>369</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
@@ -988,7 +987,7 @@
         <v>29</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" ref="O8:O17" si="5">C8*2</f>
+        <f t="shared" ref="O8:O17" si="3">C8*2</f>
         <v>78</v>
       </c>
       <c r="P8" s="3" t="s">
@@ -1052,14 +1051,14 @@
         <v>29</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" ref="Q9:Q17" si="6">M9-O9</f>
+        <f t="shared" ref="Q9:Q17" si="4">M9-O9</f>
         <v>248</v>
       </c>
       <c r="R9" s="3" t="s">
@@ -1114,14 +1113,14 @@
         <v>29</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
       <c r="R10" s="3" t="s">
@@ -1170,21 +1169,21 @@
         <v>330</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" ref="M11:M14" si="7">G11+H11*I11</f>
+        <f t="shared" ref="M11:M14" si="5">G11+H11*I11</f>
         <v>538</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>432</v>
       </c>
       <c r="R11" s="3" t="s">
@@ -1239,14 +1238,14 @@
         <v>29</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>393</v>
       </c>
       <c r="R12" s="3" t="s">
@@ -1301,14 +1300,14 @@
         <v>29</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="R13" s="3" t="s">
@@ -1357,21 +1356,21 @@
         <v>330</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>538</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>530</v>
       </c>
       <c r="R14" s="3" t="s">
@@ -1426,14 +1425,14 @@
         <v>29</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>333</v>
       </c>
       <c r="R15" s="3" t="s">
@@ -1488,14 +1487,14 @@
         <v>29</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="R16" s="3" t="s">
@@ -1550,14 +1549,14 @@
         <v>29</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>340</v>
       </c>
       <c r="R17" s="3" t="s">
@@ -1610,12 +1609,12 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="7">
-        <f>O17+O16+O15+O14+O13+O12+O11+O10+O9+O8+O6</f>
-        <v>376</v>
+        <f>O17+O7+O16+O15+O14+O13+O12+O11+O10+O9+O8+O6</f>
+        <v>417</v>
       </c>
       <c r="P19" s="7">
-        <f>P7+P5+P4</f>
-        <v>243</v>
+        <f>P5+P4</f>
+        <v>202</v>
       </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
